--- a/File/a.xlsx
+++ b/File/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,21 +455,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N21DCCN045</t>
+          <t>N21DCCN078</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Võ Anh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kiệt</t>
+          <t>Thảo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,21 +483,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N21DCCN032</t>
+          <t>N21DCCN055</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đào Phan Quốc</t>
+          <t>Trần Thị Thùy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hoài</t>
+          <t>Ngân</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -511,26 +511,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N21DCCN078</t>
+          <t>N21DCCN133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Phúc Minh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thảo</t>
+          <t>Khang</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D21CQCN01-N</t>
+          <t>D21CQCN02-N</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -539,26 +539,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N21DCCN055</t>
+          <t>N21DCCN118</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Trần Thị Thùy</t>
+          <t>Đặng Thị Thúy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ngân</t>
+          <t>Hằng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D21CQCN01-N</t>
+          <t>D21CQCN02-N</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -567,21 +567,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N21DCCN133</t>
+          <t>N21DCCN135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Minh</t>
+          <t>Võ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Khang</t>
+          <t>Khìn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -595,21 +595,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N21DCCN118</t>
+          <t>N21DCCN112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Đặng Thị Thúy</t>
+          <t>Trần Bá</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hằng</t>
+          <t>Dũng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -623,21 +623,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N21DCCN135</t>
+          <t>N21DCCN103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Võ</t>
+          <t>Vũ Quốc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Khìn</t>
+          <t>Bảo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -651,21 +651,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N21DCCN112</t>
+          <t>N21DCCN102</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Trần Bá</t>
+          <t>Nguyễn Lê Hoài</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dũng</t>
+          <t>Bắc</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,21 +679,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N21DCCN103</t>
+          <t>N21DCCN107</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vũ Quốc</t>
+          <t>Lương Hãi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bảo</t>
+          <t>Đăng</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N21DCCN102</t>
+          <t>N21DCCN122</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Lê Hoài</t>
+          <t>Trần Huỳnh Trung</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Hiếu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -735,21 +735,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N21DCCN107</t>
+          <t>N21DCCN142</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lương Hãi</t>
+          <t>Nguyễn Phi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Đăng</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,21 +763,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N21DCCN122</t>
+          <t>N21DCCN134</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trần Huỳnh Trung</t>
+          <t>Nguyễn Trung</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hiếu</t>
+          <t>Khánh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -791,26 +791,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N21DCCN142</t>
+          <t>N21DCCN054</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Phi</t>
+          <t>Phạm Đình</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D21CQCN02-N</t>
+          <t>D21CQCN01-N</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -819,26 +819,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N21DCCN134</t>
+          <t>N19DCVT010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Trung</t>
+          <t>Trần Tấn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Khánh</t>
+          <t>Hải</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D21CQCN02-N</t>
+          <t>D19CQVTHI01-N</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -847,26 +847,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N21DCCN054</t>
+          <t>N19DCVT050</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phạm Đình</t>
+          <t>Phan Văn</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Tâm</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D21CQCN01-N</t>
+          <t>D19CQVT01HI-N</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -875,26 +875,26 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N19DCVT010</t>
+          <t>N19DCVT024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Trần Tấn</t>
+          <t>Lê Anh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hải</t>
+          <t>Khoa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D19CQVTHI01-N</t>
+          <t>D19CQVTVT01-N</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -903,26 +903,26 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N19DCVT050</t>
+          <t>N19DCVT057</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Phan Văn</t>
+          <t>Đặng Bùi Quốc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tâm</t>
+          <t>Tuấn</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D19CQVT01HI-N</t>
+          <t>D19CQVTHI01-N</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -931,26 +931,26 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>N19DCVT024</t>
+          <t>N19DCVT071</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lê Anh</t>
+          <t>Lê Tuấn Nhật</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Khoa</t>
+          <t>Trường</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D19CQVTVT01-N</t>
+          <t>D19CQVTVT01</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -959,26 +959,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N19DCVT057</t>
+          <t>N19DCVT049</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Đặng Bùi Quốc</t>
+          <t>Trần Duy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tuấn</t>
+          <t>Quyền</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D19CQVTHI01-N</t>
+          <t>D19CQVT01-N</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -987,26 +987,26 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N19DCVT071</t>
+          <t>N20DCVT025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lê Tuấn Nhật</t>
+          <t>Nguyễn Đăng</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Trường</t>
+          <t>Khoa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D19CQVTVT01</t>
+          <t>D20CQVT01-N</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1015,26 +1015,26 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N19DCVT049</t>
+          <t>N20DCVT054</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trần Duy</t>
+          <t>Nguyễn Khánh</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quyền</t>
+          <t>Toàn</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>D19CQVT01-N</t>
+          <t>D20CQVT01-N</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1043,21 +1043,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N20DCVT025</t>
+          <t>N20DCVT039</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Đăng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Khoa</t>
+          <t>Phúc</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1071,21 +1071,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N20DCVT054</t>
+          <t>N20DCVT012</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Khánh</t>
+          <t>Phạm Hải</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Toàn</t>
+          <t>Đường</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1099,21 +1099,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N20DCVT039</t>
+          <t>N20DCVT034</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Nguyễn Thị Hoài</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Phúc</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>N20DCVT012</t>
+          <t>N20DCVT064</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phạm Hải</t>
+          <t>Đặng Quang</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Đường</t>
+          <t>Trường</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1155,26 +1155,26 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>N20DCVT034</t>
+          <t>N21DCVT007</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hoài</t>
+          <t>Nguyễn Chí</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Bảo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>D20CQVT01-N</t>
+          <t>D21CQVT01-N</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1183,26 +1183,26 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>N20DCVT064</t>
+          <t>N21DCVT119</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Đặng Quang</t>
+          <t>Ngô Công</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Trường</t>
+          <t>Vĩ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>D20CQVT01-N</t>
+          <t>D21CQVT01-N</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1211,26 +1211,26 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N21DCVT007</t>
+          <t>N21DCVT117</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nguyễn Chí</t>
+          <t>Chu Phạm Thanh</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bảo</t>
+          <t>Tùng</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D21CQVT01-N</t>
+          <t>N21CQVT01-N</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1239,21 +1239,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N21DCVT119</t>
+          <t>N21DCVT020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ngô Công</t>
+          <t>Lê Khánh</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Vĩ</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1267,26 +1267,26 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N21DCVT117</t>
+          <t>N22DCCI031</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chu Phạm Thanh</t>
+          <t>Trần Minh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tùng</t>
+          <t>Quân</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>N21CQVT01-N</t>
+          <t>D22CQCI01-N</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1295,26 +1295,26 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>N21DCVT020</t>
+          <t>N22DCCI001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lê Khánh</t>
+          <t>Nguyễn Ngọc Hồng</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Ánh</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D21CQVT01-N</t>
+          <t>D22CQCI01-N</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1323,26 +1323,26 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N22DCCI031</t>
+          <t>N22CQVT072</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Trần Minh</t>
+          <t>Mai Hoàng</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quân</t>
+          <t>Phúc</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>D22CQCI01-N</t>
+          <t>D22CQVT01-N</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1351,21 +1351,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N22DCCI001</t>
+          <t>N22DCCI044</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hồng</t>
+          <t>Trần Đại</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ánh</t>
+          <t>Vĩ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1379,26 +1379,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N22CQVT072</t>
+          <t>N22DCCI043</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mai Hoàng</t>
+          <t>Phan Thị Ánh</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Phúc</t>
+          <t>Tuyết</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>D22CQVT01-N</t>
+          <t>D22CQCI01-N</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1407,21 +1407,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>N22DCCI044</t>
+          <t>N22DCCI037</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Trần Đại</t>
+          <t>Võ Thị Kim</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vĩ</t>
+          <t>Thoa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1435,26 +1435,26 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>N22DCCI043</t>
+          <t>N22DCVT102</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Phan Thị Ánh</t>
+          <t>Bùi Minh</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tuyết</t>
+          <t>Trí</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>D22CQCI01-N</t>
+          <t>D22CQVT01-N</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1463,26 +1463,26 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N22DCCI037</t>
+          <t>N19DCDT002</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Võ Thị Kim</t>
+          <t>Nguyễn Trầm Gia</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thoa</t>
+          <t>Bảo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>D22CQCI01-N</t>
+          <t>D19CQDT01-N</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1491,26 +1491,26 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>N22DCVT102</t>
+          <t>N21DCCN191</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bùi Minh</t>
+          <t>Huỳnh Chí</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Trí</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>D22CQVT01-N</t>
+          <t>E21CQCN01-N</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1519,49 +1519,49 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>N19DCDT002</t>
+          <t>N21DCCN004</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Trầm Gia</t>
+          <t>Kiều Tuấn Trung</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bảo</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>D19CQDT01-N</t>
+          <t>E21CQCN01-N</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>N21DCCN191</t>
+          <t>N21DCCN036</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Huỳnh Chí</t>
+          <t>Trần Nguyễn Phi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Trung</t>
+          <t>Hùng</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1575,21 +1575,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>N21DCCN004</t>
+          <t>N21DCVT085</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Kiều Tuấn Trung</t>
+          <t>Nguyễn Thúy</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Quỳnh</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1598,26 +1598,26 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N21DCCN036</t>
+          <t>N21DCCN080</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Phi</t>
+          <t>Nguyễn Hoàng</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hùng</t>
+          <t>Thiện</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1631,21 +1631,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>N21DCVT085</t>
+          <t>N21DCCN176</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Thúy</t>
+          <t>Phạm Trần Tất</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quỳnh</t>
+          <t>Thành</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1659,21 +1659,21 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>N21DCCN080</t>
+          <t>N21DCCN018</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng</t>
+          <t>Nguyễn Hữu</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thiện</t>
+          <t>Dũng</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>N21DCCN176</t>
+          <t>N21DCCN025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Phạm Trần Tất</t>
+          <t>Ngô Thị</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thành</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1715,21 +1715,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>N21DCCN018</t>
+          <t>N21DCDK022</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu</t>
+          <t>Nguyễn Tấn</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dũng</t>
+          <t>Phúc</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1743,21 +1743,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>N21DCCN025</t>
+          <t>N21DCCN128</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ngô Thị</t>
+          <t>Lê Nhựt</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1771,21 +1771,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>N21DCDK022</t>
+          <t>N21DCCN065</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nguyễn Tấn</t>
+          <t>Lê Quang</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Phúc</t>
+          <t>Phú</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1799,21 +1799,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N21DCCN128</t>
+          <t>N21DCCN085</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lê Nhựt</t>
+          <t>Trần Tấn</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Phát</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1827,21 +1827,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>N21DCCN065</t>
+          <t>N21DCCN064</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lê Quang</t>
+          <t>Dương Thanh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Phú</t>
+          <t>Toàn</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1855,21 +1855,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>N21DCCN085</t>
+          <t>N21DCVT074</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Trần Tấn</t>
+          <t>Phạm Trịnh Xuân</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Phát</t>
+          <t>Phú</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1883,21 +1883,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>N21DCCN064</t>
+          <t>N21DCAT065</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dương Thanh</t>
+          <t>Đặng Lợi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Toàn</t>
+          <t>Vĩ</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1906,62 +1906,6 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>74</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>N21DCVT074</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Phạm Trịnh Xuân</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Phú</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>E21CQCN01-N</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>75</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>N21DCAT065</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Đặng Lợi</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Vĩ</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>E21CQCN01-N</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
